--- a/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/Recipient_Data_Import_Template.xlsx
+++ b/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/Recipient_Data_Import_Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Recipient Type</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Sridevi6@zenwork.com</t>
+  </si>
+  <si>
+    <t>40-1227903</t>
+  </si>
+  <si>
+    <t>Imported162807410</t>
+  </si>
+  <si>
+    <t>Sridevi91@zenwork.com</t>
   </si>
 </sst>
 </file>
@@ -845,10 +854,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -875,7 +884,7 @@
         <v>1234567890</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T2">
         <v>34</v>
